--- a/xlsx/加利福尼亚州众议院_intext.xlsx
+++ b/xlsx/加利福尼亚州众议院_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>加利福尼亚州众议院</t>
   </si>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
@@ -59,15 +59,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%AD%B0%E6%9C%83%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>加利福尼亞州議會大廈</t>
+    <t>加利福尼亚州议会大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>加利福尼亞州議會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E%E8%AE%AE%E4%BC%9A</t>
   </si>
   <si>
@@ -371,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -389,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -401,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
 </sst>
 </file>
@@ -975,7 +969,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
         <v>7</v>
@@ -1001,10 +995,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -1030,10 +1024,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>5</v>
@@ -1059,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1088,10 +1082,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1117,10 +1111,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1146,10 +1140,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1175,10 +1169,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>65</v>
@@ -1204,10 +1198,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>54</v>
@@ -1233,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1262,10 +1256,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1291,10 +1285,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1320,10 +1314,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
         <v>14</v>
@@ -1349,10 +1343,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1378,10 +1372,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1407,10 +1401,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1436,10 +1430,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1465,10 +1459,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1494,10 +1488,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1523,10 +1517,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1552,10 +1546,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1581,10 +1575,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1610,10 +1604,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1639,10 +1633,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1668,10 +1662,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1697,10 +1691,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1726,10 +1720,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1755,10 +1749,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1784,10 +1778,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1813,10 +1807,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1842,10 +1836,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1871,10 +1865,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1900,10 +1894,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1929,10 +1923,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1958,10 +1952,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1987,10 +1981,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2016,10 +2010,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2045,10 +2039,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2074,10 +2068,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2103,10 +2097,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2132,10 +2126,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2161,10 +2155,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2190,10 +2184,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2219,10 +2213,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2248,10 +2242,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2277,10 +2271,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2306,10 +2300,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2335,10 +2329,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2364,10 +2358,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2393,10 +2387,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2422,10 +2416,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2451,10 +2445,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -2480,10 +2474,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2509,10 +2503,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2538,10 +2532,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2567,10 +2561,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2596,10 +2590,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
